--- a/07_Project_Capstone_Arvato-Bertelsmann/data/description/DIAS Information Levels - Attributes 2017.xlsx
+++ b/07_Project_Capstone_Arvato-Bertelsmann/data/description/DIAS Information Levels - Attributes 2017.xlsx
@@ -5,23 +5,71 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/robin_wesselmann_zf_com/Documents/Desktop/Udacity_DataScientist_Class/07_Project_Capstone_Arvato-Bertelsmann/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z635177\OneDrive - ZF Friedrichshafen AG\Desktop\Udacity_DataScientist_Class\07_Project_Capstone_Arvato-Bertelsmann\data\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{05849C1D-B22B-4795-8152-741B857EFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951D9EDC-9093-4601-9FC2-63FBC0A615B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E20DBF-1A39-430B-BF2E-D2CD33F3D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Komplett" sheetId="1" r:id="rId1"/>
     <sheet name="mapping" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Komplett!$B$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mapping!$A$1:$C$387</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Komplett!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Wesselmann Robin SBR EFOLS1</author>
+  </authors>
+  <commentList>
+    <comment ref="D310" authorId="0" shapeId="0" xr:uid="{B351B711-8ED3-4824-B1E9-3EF2A99CFAA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wesselmann Robin SBR EFOLS1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2300,7 +2348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2324,6 +2372,19 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2879,6 +2940,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2894,25 +2973,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,12 +2993,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3236,17 +3297,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:E315"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="B1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3287,7 +3348,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>348</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3301,7 +3362,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="77"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
@@ -3311,7 +3372,7 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="77"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="34" t="s">
         <v>316</v>
       </c>
@@ -3323,79 +3384,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="77"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="78" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="77"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="77"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="77"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="77"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="77"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
@@ -3405,7 +3466,7 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="77"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="18" t="s">
         <v>589</v>
       </c>
@@ -3415,7 +3476,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="77"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="53" t="s">
         <v>352</v>
       </c>
@@ -3427,7 +3488,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="77"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="34" t="s">
         <v>107</v>
       </c>
@@ -3439,7 +3500,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="77"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="64" t="s">
         <v>568</v>
       </c>
@@ -3451,7 +3512,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="77"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="64" t="s">
         <v>569</v>
       </c>
@@ -3463,7 +3524,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="77"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="18" t="s">
         <v>570</v>
       </c>
@@ -3473,7 +3534,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="77"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="18" t="s">
         <v>571</v>
       </c>
@@ -3483,7 +3544,7 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="77"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="18" t="s">
         <v>572</v>
       </c>
@@ -3493,7 +3554,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="77"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="18" t="s">
         <v>573</v>
       </c>
@@ -3503,7 +3564,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="34" t="s">
         <v>21</v>
       </c>
@@ -3515,7 +3576,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="77"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="53" t="s">
         <v>121</v>
       </c>
@@ -3527,7 +3588,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="77"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="18" t="s">
         <v>587</v>
       </c>
@@ -3537,159 +3598,159 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="77"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="85" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="77"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="77"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="84"/>
+      <c r="E29" s="86"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="77"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="84"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="77"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="84"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="77"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E32" s="84"/>
+      <c r="E32" s="86"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="77"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="84"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="77"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="84"/>
+      <c r="E34" s="86"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="77"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="84"/>
+      <c r="E35" s="86"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="77"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E36" s="84"/>
+      <c r="E36" s="86"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="77"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="84"/>
+      <c r="E37" s="86"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="77"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="84"/>
+      <c r="E38" s="86"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="77"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="84"/>
+      <c r="E39" s="86"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="77"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="84"/>
+      <c r="E40" s="86"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="77"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="77"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="6" t="s">
         <v>113</v>
       </c>
@@ -3699,7 +3760,7 @@
       <c r="E42" s="46"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="77"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="22" t="s">
         <v>19</v>
       </c>
@@ -3709,7 +3770,7 @@
       <c r="E43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="77"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="52" t="s">
         <v>109</v>
       </c>
@@ -3721,7 +3782,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="66" t="s">
         <v>353</v>
       </c>
@@ -3733,7 +3794,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="75" t="s">
         <v>347</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -3745,7 +3806,7 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="76"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
@@ -3755,7 +3816,7 @@
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="76"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3765,7 +3826,7 @@
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="76"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
@@ -3775,7 +3836,7 @@
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="76"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="62" t="s">
         <v>92</v>
       </c>
@@ -3787,259 +3848,259 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="76"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="5" t="s">
         <v>583</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="E51" s="83" t="s">
+      <c r="E51" s="85" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="76"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="5" t="s">
         <v>584</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="E52" s="81"/>
+      <c r="E52" s="72"/>
     </row>
     <row r="53" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="76"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="29" t="s">
         <v>634</v>
       </c>
       <c r="D53" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E53" s="81"/>
+      <c r="E53" s="72"/>
     </row>
     <row r="54" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="76"/>
+      <c r="B54" s="75"/>
       <c r="C54" s="29" t="s">
         <v>351</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="E54" s="81"/>
+      <c r="E54" s="72"/>
     </row>
     <row r="55" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="76"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="29" t="s">
         <v>350</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="E55" s="81"/>
+      <c r="E55" s="72"/>
     </row>
     <row r="56" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B56" s="76"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="29" t="s">
         <v>633</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="72"/>
     </row>
     <row r="57" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="76"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="E57" s="81"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="76"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="E58" s="81"/>
+      <c r="E58" s="72"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="76"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E59" s="81"/>
+      <c r="E59" s="72"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="76"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E60" s="81"/>
+      <c r="E60" s="72"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="76"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="E61" s="81"/>
+      <c r="E61" s="72"/>
     </row>
     <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="76"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="7" t="s">
         <v>308</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="81"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="76"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E63" s="81"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="76"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="7" t="s">
         <v>306</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E64" s="81"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="76"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E65" s="81"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="76"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E66" s="81"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="76"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="7" t="s">
         <v>303</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E67" s="81"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="76"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E68" s="81"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="76"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E69" s="81"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="76"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E70" s="81"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="76"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="7" t="s">
         <v>298</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E71" s="81"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="76"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="7" t="s">
         <v>300</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E72" s="81"/>
+      <c r="E72" s="72"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="76"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E73" s="81"/>
+      <c r="E73" s="72"/>
     </row>
     <row r="74" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="76"/>
+      <c r="B74" s="75"/>
       <c r="C74" s="7" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="E74" s="81"/>
+      <c r="E74" s="72"/>
     </row>
     <row r="75" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="76"/>
+      <c r="B75" s="75"/>
       <c r="C75" s="7" t="s">
         <v>315</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="E75" s="86"/>
+      <c r="E75" s="88"/>
     </row>
     <row r="76" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="76"/>
+      <c r="B76" s="75"/>
       <c r="C76" s="5" t="s">
         <v>111</v>
       </c>
@@ -4049,7 +4110,7 @@
       <c r="E76" s="48"/>
     </row>
     <row r="77" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="79"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="9" t="s">
         <v>112</v>
       </c>
@@ -4059,7 +4120,7 @@
       <c r="E77" s="49"/>
     </row>
     <row r="78" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="75" t="s">
         <v>132</v>
       </c>
       <c r="C78" s="25" t="s">
@@ -4071,7 +4132,7 @@
       <c r="E78" s="12"/>
     </row>
     <row r="79" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="76"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="39" t="s">
         <v>4</v>
       </c>
@@ -4081,7 +4142,7 @@
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="76"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="14" t="s">
         <v>3</v>
       </c>
@@ -4091,7 +4152,7 @@
       <c r="E80" s="12"/>
     </row>
     <row r="81" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="76"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="15" t="s">
         <v>9</v>
       </c>
@@ -4103,7 +4164,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="76"/>
+      <c r="B82" s="75"/>
       <c r="C82" s="14" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4174,7 @@
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="76"/>
+      <c r="B83" s="75"/>
       <c r="C83" s="14" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +4184,7 @@
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="76"/>
+      <c r="B84" s="75"/>
       <c r="C84" s="38" t="s">
         <v>580</v>
       </c>
@@ -4135,7 +4196,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="76"/>
+      <c r="B85" s="75"/>
       <c r="C85" s="14" t="s">
         <v>5</v>
       </c>
@@ -4145,7 +4206,7 @@
       <c r="E85" s="12"/>
     </row>
     <row r="86" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="76"/>
+      <c r="B86" s="75"/>
       <c r="C86" s="38" t="s">
         <v>578</v>
       </c>
@@ -4155,7 +4216,7 @@
       <c r="E86" s="12"/>
     </row>
     <row r="87" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="76"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="14" t="s">
         <v>6</v>
       </c>
@@ -4165,7 +4226,7 @@
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="2:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="80" t="s">
         <v>424</v>
       </c>
       <c r="C88" s="35" t="s">
@@ -4174,29 +4235,29 @@
       <c r="D88" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="E88" s="80" t="s">
+      <c r="E88" s="84" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="71"/>
+      <c r="B89" s="77"/>
       <c r="C89" s="14" t="s">
         <v>427</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E89" s="81"/>
+      <c r="E89" s="72"/>
     </row>
     <row r="90" spans="2:5" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="75"/>
+      <c r="B90" s="81"/>
       <c r="C90" s="24" t="s">
         <v>428</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E90" s="82"/>
+      <c r="E90" s="73"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="42"/>
@@ -4289,7 +4350,7 @@
       <c r="E99" s="57"/>
     </row>
     <row r="100" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C100" s="14" t="s">
@@ -4301,7 +4362,7 @@
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="71"/>
+      <c r="B101" s="77"/>
       <c r="C101" s="14" t="s">
         <v>85</v>
       </c>
@@ -4311,7 +4372,7 @@
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="71"/>
+      <c r="B102" s="77"/>
       <c r="C102" s="14" t="s">
         <v>33</v>
       </c>
@@ -4321,7 +4382,7 @@
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B103" s="71"/>
+      <c r="B103" s="77"/>
       <c r="C103" s="14" t="s">
         <v>34</v>
       </c>
@@ -4331,7 +4392,7 @@
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="71"/>
+      <c r="B104" s="77"/>
       <c r="C104" s="14" t="s">
         <v>35</v>
       </c>
@@ -4341,7 +4402,7 @@
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B105" s="71"/>
+      <c r="B105" s="77"/>
       <c r="C105" s="14" t="s">
         <v>36</v>
       </c>
@@ -4351,7 +4412,7 @@
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B106" s="71"/>
+      <c r="B106" s="77"/>
       <c r="C106" s="14" t="s">
         <v>54</v>
       </c>
@@ -4361,7 +4422,7 @@
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="71"/>
+      <c r="B107" s="77"/>
       <c r="C107" s="14" t="s">
         <v>48</v>
       </c>
@@ -4371,7 +4432,7 @@
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B108" s="71"/>
+      <c r="B108" s="77"/>
       <c r="C108" s="14" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4442,7 @@
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B109" s="71"/>
+      <c r="B109" s="77"/>
       <c r="C109" s="14" t="s">
         <v>69</v>
       </c>
@@ -4391,7 +4452,7 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B110" s="71"/>
+      <c r="B110" s="77"/>
       <c r="C110" s="14" t="s">
         <v>70</v>
       </c>
@@ -4401,7 +4462,7 @@
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="71"/>
+      <c r="B111" s="77"/>
       <c r="C111" s="14" t="s">
         <v>71</v>
       </c>
@@ -4411,7 +4472,7 @@
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B112" s="71"/>
+      <c r="B112" s="77"/>
       <c r="C112" s="14" t="s">
         <v>72</v>
       </c>
@@ -4421,7 +4482,7 @@
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B113" s="71"/>
+      <c r="B113" s="77"/>
       <c r="C113" s="14" t="s">
         <v>73</v>
       </c>
@@ -4431,7 +4492,7 @@
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B114" s="71"/>
+      <c r="B114" s="77"/>
       <c r="C114" s="14" t="s">
         <v>83</v>
       </c>
@@ -4441,7 +4502,7 @@
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B115" s="71"/>
+      <c r="B115" s="77"/>
       <c r="C115" s="14" t="s">
         <v>77</v>
       </c>
@@ -4451,7 +4512,7 @@
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B116" s="71"/>
+      <c r="B116" s="77"/>
       <c r="C116" s="14" t="s">
         <v>76</v>
       </c>
@@ -4461,7 +4522,7 @@
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B117" s="71"/>
+      <c r="B117" s="77"/>
       <c r="C117" s="14" t="s">
         <v>75</v>
       </c>
@@ -4471,7 +4532,7 @@
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B118" s="71"/>
+      <c r="B118" s="77"/>
       <c r="C118" s="14" t="s">
         <v>67</v>
       </c>
@@ -4481,7 +4542,7 @@
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="71"/>
+      <c r="B119" s="77"/>
       <c r="C119" s="14" t="s">
         <v>66</v>
       </c>
@@ -4491,7 +4552,7 @@
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B120" s="71"/>
+      <c r="B120" s="77"/>
       <c r="C120" s="14" t="s">
         <v>68</v>
       </c>
@@ -4501,7 +4562,7 @@
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B121" s="71"/>
+      <c r="B121" s="77"/>
       <c r="C121" s="14" t="s">
         <v>41</v>
       </c>
@@ -4511,7 +4572,7 @@
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B122" s="71"/>
+      <c r="B122" s="77"/>
       <c r="C122" s="14" t="s">
         <v>30</v>
       </c>
@@ -4521,7 +4582,7 @@
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B123" s="71"/>
+      <c r="B123" s="77"/>
       <c r="C123" s="14" t="s">
         <v>31</v>
       </c>
@@ -4531,7 +4592,7 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B124" s="71"/>
+      <c r="B124" s="77"/>
       <c r="C124" s="14" t="s">
         <v>32</v>
       </c>
@@ -4541,7 +4602,7 @@
       <c r="E124" s="6"/>
     </row>
     <row r="125" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B125" s="71"/>
+      <c r="B125" s="77"/>
       <c r="C125" s="14" t="s">
         <v>47</v>
       </c>
@@ -4551,7 +4612,7 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B126" s="71"/>
+      <c r="B126" s="77"/>
       <c r="C126" s="14" t="s">
         <v>42</v>
       </c>
@@ -4561,7 +4622,7 @@
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B127" s="71"/>
+      <c r="B127" s="77"/>
       <c r="C127" s="14" t="s">
         <v>74</v>
       </c>
@@ -4571,7 +4632,7 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B128" s="71"/>
+      <c r="B128" s="77"/>
       <c r="C128" s="14" t="s">
         <v>65</v>
       </c>
@@ -4581,7 +4642,7 @@
       <c r="E128" s="6"/>
     </row>
     <row r="129" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B129" s="71"/>
+      <c r="B129" s="77"/>
       <c r="C129" s="14" t="s">
         <v>52</v>
       </c>
@@ -4591,7 +4652,7 @@
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B130" s="71"/>
+      <c r="B130" s="77"/>
       <c r="C130" s="14" t="s">
         <v>78</v>
       </c>
@@ -4601,7 +4662,7 @@
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B131" s="71"/>
+      <c r="B131" s="77"/>
       <c r="C131" s="14" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4672,7 @@
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="71"/>
+      <c r="B132" s="77"/>
       <c r="C132" s="14" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +4682,7 @@
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B133" s="71"/>
+      <c r="B133" s="77"/>
       <c r="C133" s="14" t="s">
         <v>81</v>
       </c>
@@ -4631,7 +4692,7 @@
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="71"/>
+      <c r="B134" s="77"/>
       <c r="C134" s="14" t="s">
         <v>82</v>
       </c>
@@ -4641,7 +4702,7 @@
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B135" s="71"/>
+      <c r="B135" s="77"/>
       <c r="C135" s="14" t="s">
         <v>84</v>
       </c>
@@ -4651,7 +4712,7 @@
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B136" s="71"/>
+      <c r="B136" s="77"/>
       <c r="C136" s="14" t="s">
         <v>29</v>
       </c>
@@ -4661,7 +4722,7 @@
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B137" s="71"/>
+      <c r="B137" s="77"/>
       <c r="C137" s="14" t="s">
         <v>55</v>
       </c>
@@ -4671,7 +4732,7 @@
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B138" s="71"/>
+      <c r="B138" s="77"/>
       <c r="C138" s="14" t="s">
         <v>56</v>
       </c>
@@ -4681,7 +4742,7 @@
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B139" s="71"/>
+      <c r="B139" s="77"/>
       <c r="C139" s="14" t="s">
         <v>57</v>
       </c>
@@ -4691,7 +4752,7 @@
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B140" s="71"/>
+      <c r="B140" s="77"/>
       <c r="C140" s="14" t="s">
         <v>58</v>
       </c>
@@ -4701,7 +4762,7 @@
       <c r="E140" s="6"/>
     </row>
     <row r="141" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B141" s="71"/>
+      <c r="B141" s="77"/>
       <c r="C141" s="14" t="s">
         <v>59</v>
       </c>
@@ -4711,7 +4772,7 @@
       <c r="E141" s="6"/>
     </row>
     <row r="142" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B142" s="71"/>
+      <c r="B142" s="77"/>
       <c r="C142" s="14" t="s">
         <v>60</v>
       </c>
@@ -4721,7 +4782,7 @@
       <c r="E142" s="6"/>
     </row>
     <row r="143" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B143" s="71"/>
+      <c r="B143" s="77"/>
       <c r="C143" s="14" t="s">
         <v>61</v>
       </c>
@@ -4731,7 +4792,7 @@
       <c r="E143" s="6"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B144" s="71"/>
+      <c r="B144" s="77"/>
       <c r="C144" s="14" t="s">
         <v>62</v>
       </c>
@@ -4741,7 +4802,7 @@
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B145" s="71"/>
+      <c r="B145" s="77"/>
       <c r="C145" s="14" t="s">
         <v>63</v>
       </c>
@@ -4751,7 +4812,7 @@
       <c r="E145" s="6"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B146" s="71"/>
+      <c r="B146" s="77"/>
       <c r="C146" s="14" t="s">
         <v>64</v>
       </c>
@@ -4761,7 +4822,7 @@
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B147" s="71"/>
+      <c r="B147" s="77"/>
       <c r="C147" s="14" t="s">
         <v>49</v>
       </c>
@@ -4771,7 +4832,7 @@
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B148" s="71"/>
+      <c r="B148" s="77"/>
       <c r="C148" s="14" t="s">
         <v>50</v>
       </c>
@@ -4781,7 +4842,7 @@
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B149" s="71"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="14" t="s">
         <v>51</v>
       </c>
@@ -4791,7 +4852,7 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B150" s="71"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="14" t="s">
         <v>37</v>
       </c>
@@ -4801,7 +4862,7 @@
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B151" s="71"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="14" t="s">
         <v>38</v>
       </c>
@@ -4811,7 +4872,7 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B152" s="71"/>
+      <c r="B152" s="77"/>
       <c r="C152" s="14" t="s">
         <v>39</v>
       </c>
@@ -4821,7 +4882,7 @@
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B153" s="71"/>
+      <c r="B153" s="77"/>
       <c r="C153" s="14" t="s">
         <v>40</v>
       </c>
@@ -4831,7 +4892,7 @@
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="71"/>
+      <c r="B154" s="77"/>
       <c r="C154" s="15" t="s">
         <v>91</v>
       </c>
@@ -4841,7 +4902,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B155" s="88" t="s">
+      <c r="B155" s="74" t="s">
         <v>340</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4850,332 +4911,332 @@
       <c r="D155" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="E155" s="87" t="s">
+      <c r="E155" s="71" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B156" s="76"/>
+      <c r="B156" s="75"/>
       <c r="C156" s="6" t="s">
         <v>343</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="E156" s="81"/>
+      <c r="E156" s="72"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B157" s="76"/>
+      <c r="B157" s="75"/>
       <c r="C157" s="6" t="s">
         <v>341</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="E157" s="81"/>
+      <c r="E157" s="72"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B158" s="76"/>
+      <c r="B158" s="75"/>
       <c r="C158" s="6" t="s">
         <v>344</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E158" s="81"/>
+      <c r="E158" s="72"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B159" s="76"/>
+      <c r="B159" s="75"/>
       <c r="C159" s="6" t="s">
         <v>320</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E159" s="81"/>
+      <c r="E159" s="72"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B160" s="76"/>
+      <c r="B160" s="75"/>
       <c r="C160" s="6" t="s">
         <v>321</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="E160" s="81"/>
+      <c r="E160" s="72"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B161" s="76"/>
+      <c r="B161" s="75"/>
       <c r="C161" s="6" t="s">
         <v>329</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E161" s="81"/>
+      <c r="E161" s="72"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B162" s="76"/>
+      <c r="B162" s="75"/>
       <c r="C162" s="6" t="s">
         <v>597</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="E162" s="81"/>
+      <c r="E162" s="72"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B163" s="76"/>
+      <c r="B163" s="75"/>
       <c r="C163" s="6" t="s">
         <v>333</v>
       </c>
       <c r="D163" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="E163" s="81"/>
+      <c r="E163" s="72"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B164" s="76"/>
+      <c r="B164" s="75"/>
       <c r="C164" s="6" t="s">
         <v>318</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="E164" s="81"/>
+      <c r="E164" s="72"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B165" s="76"/>
+      <c r="B165" s="75"/>
       <c r="C165" s="6" t="s">
         <v>326</v>
       </c>
       <c r="D165" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="E165" s="81"/>
+      <c r="E165" s="72"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B166" s="76"/>
+      <c r="B166" s="75"/>
       <c r="C166" s="6" t="s">
         <v>346</v>
       </c>
       <c r="D166" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="E166" s="81"/>
+      <c r="E166" s="72"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B167" s="76"/>
+      <c r="B167" s="75"/>
       <c r="C167" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="E167" s="81"/>
+      <c r="E167" s="72"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B168" s="76"/>
+      <c r="B168" s="75"/>
       <c r="C168" s="6" t="s">
         <v>334</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="E168" s="81"/>
+      <c r="E168" s="72"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B169" s="76"/>
+      <c r="B169" s="75"/>
       <c r="C169" s="6" t="s">
         <v>336</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E169" s="81"/>
+      <c r="E169" s="72"/>
     </row>
     <row r="170" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B170" s="76"/>
+      <c r="B170" s="75"/>
       <c r="C170" s="6" t="s">
         <v>335</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="E170" s="81"/>
+      <c r="E170" s="72"/>
     </row>
     <row r="171" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B171" s="76"/>
+      <c r="B171" s="75"/>
       <c r="C171" s="6" t="s">
         <v>323</v>
       </c>
       <c r="D171" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E171" s="81"/>
+      <c r="E171" s="72"/>
     </row>
     <row r="172" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B172" s="76"/>
+      <c r="B172" s="75"/>
       <c r="C172" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D172" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E172" s="81"/>
+      <c r="E172" s="72"/>
     </row>
     <row r="173" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B173" s="76"/>
+      <c r="B173" s="75"/>
       <c r="C173" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="E173" s="81"/>
+      <c r="E173" s="72"/>
     </row>
     <row r="174" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B174" s="76"/>
+      <c r="B174" s="75"/>
       <c r="C174" s="6" t="s">
         <v>327</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E174" s="81"/>
+      <c r="E174" s="72"/>
     </row>
     <row r="175" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B175" s="76"/>
+      <c r="B175" s="75"/>
       <c r="C175" s="6" t="s">
         <v>595</v>
       </c>
       <c r="D175" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="E175" s="81"/>
+      <c r="E175" s="72"/>
     </row>
     <row r="176" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B176" s="76"/>
+      <c r="B176" s="75"/>
       <c r="C176" s="6" t="s">
         <v>593</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="E176" s="81"/>
+      <c r="E176" s="72"/>
     </row>
     <row r="177" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B177" s="76"/>
+      <c r="B177" s="75"/>
       <c r="C177" s="6" t="s">
         <v>332</v>
       </c>
       <c r="D177" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="E177" s="81"/>
+      <c r="E177" s="72"/>
     </row>
     <row r="178" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B178" s="76"/>
+      <c r="B178" s="75"/>
       <c r="C178" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="E178" s="81"/>
+      <c r="E178" s="72"/>
     </row>
     <row r="179" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B179" s="76"/>
+      <c r="B179" s="75"/>
       <c r="C179" s="6" t="s">
         <v>339</v>
       </c>
       <c r="D179" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="E179" s="81"/>
+      <c r="E179" s="72"/>
     </row>
     <row r="180" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B180" s="76"/>
+      <c r="B180" s="75"/>
       <c r="C180" s="6" t="s">
         <v>319</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="E180" s="81"/>
+      <c r="E180" s="72"/>
     </row>
     <row r="181" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B181" s="76"/>
+      <c r="B181" s="75"/>
       <c r="C181" s="6" t="s">
         <v>432</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="E181" s="81"/>
+      <c r="E181" s="72"/>
     </row>
     <row r="182" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B182" s="76"/>
+      <c r="B182" s="75"/>
       <c r="C182" s="34" t="s">
         <v>317</v>
       </c>
       <c r="D182" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="E182" s="81"/>
+      <c r="E182" s="72"/>
     </row>
     <row r="183" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B183" s="76"/>
+      <c r="B183" s="75"/>
       <c r="C183" s="6" t="s">
         <v>324</v>
       </c>
       <c r="D183" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="E183" s="81"/>
+      <c r="E183" s="72"/>
     </row>
     <row r="184" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B184" s="76"/>
+      <c r="B184" s="75"/>
       <c r="C184" s="6" t="s">
         <v>345</v>
       </c>
       <c r="D184" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="E184" s="81"/>
+      <c r="E184" s="72"/>
     </row>
     <row r="185" spans="2:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="76"/>
+      <c r="B185" s="75"/>
       <c r="C185" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D185" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="E185" s="81"/>
+      <c r="E185" s="72"/>
     </row>
     <row r="186" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="76"/>
+      <c r="B186" s="75"/>
       <c r="C186" s="6" t="s">
         <v>338</v>
       </c>
       <c r="D186" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E186" s="81"/>
+      <c r="E186" s="72"/>
     </row>
     <row r="187" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="79"/>
+      <c r="B187" s="76"/>
       <c r="C187" s="13" t="s">
         <v>330</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="E187" s="82"/>
+      <c r="E187" s="73"/>
     </row>
     <row r="188" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B188" s="76" t="s">
+      <c r="B188" s="75" t="s">
         <v>636</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -5187,7 +5248,7 @@
       <c r="E188" s="6"/>
     </row>
     <row r="189" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B189" s="76"/>
+      <c r="B189" s="75"/>
       <c r="C189" s="5" t="s">
         <v>24</v>
       </c>
@@ -5197,7 +5258,7 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B190" s="76"/>
+      <c r="B190" s="75"/>
       <c r="C190" s="5" t="s">
         <v>25</v>
       </c>
@@ -5207,7 +5268,7 @@
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="79"/>
+      <c r="B191" s="76"/>
       <c r="C191" s="9" t="s">
         <v>0</v>
       </c>
@@ -5217,7 +5278,7 @@
       <c r="E191" s="13"/>
     </row>
     <row r="192" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B192" s="76" t="s">
+      <c r="B192" s="75" t="s">
         <v>567</v>
       </c>
       <c r="C192" s="30" t="s">
@@ -5229,7 +5290,7 @@
       <c r="E192" s="6"/>
     </row>
     <row r="193" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B193" s="76"/>
+      <c r="B193" s="75"/>
       <c r="C193" s="62" t="s">
         <v>27</v>
       </c>
@@ -5241,7 +5302,7 @@
       </c>
     </row>
     <row r="194" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B194" s="76"/>
+      <c r="B194" s="75"/>
       <c r="C194" s="5" t="s">
         <v>591</v>
       </c>
@@ -5251,7 +5312,7 @@
       <c r="E194" s="6"/>
     </row>
     <row r="195" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B195" s="76"/>
+      <c r="B195" s="75"/>
       <c r="C195" s="5" t="s">
         <v>433</v>
       </c>
@@ -5261,7 +5322,7 @@
       <c r="E195" s="6"/>
     </row>
     <row r="196" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="76"/>
+      <c r="B196" s="75"/>
       <c r="C196" s="9" t="s">
         <v>26</v>
       </c>
@@ -5271,7 +5332,7 @@
       <c r="E196" s="6"/>
     </row>
     <row r="197" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B197" s="88" t="s">
+      <c r="B197" s="74" t="s">
         <v>122</v>
       </c>
       <c r="C197" s="59" t="s">
@@ -5283,7 +5344,7 @@
       <c r="E197" s="19"/>
     </row>
     <row r="198" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B198" s="76"/>
+      <c r="B198" s="75"/>
       <c r="C198" s="16" t="s">
         <v>436</v>
       </c>
@@ -5293,7 +5354,7 @@
       <c r="E198" s="11"/>
     </row>
     <row r="199" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B199" s="76"/>
+      <c r="B199" s="75"/>
       <c r="C199" s="16" t="s">
         <v>437</v>
       </c>
@@ -5303,7 +5364,7 @@
       <c r="E199" s="11"/>
     </row>
     <row r="200" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B200" s="76"/>
+      <c r="B200" s="75"/>
       <c r="C200" s="16" t="s">
         <v>438</v>
       </c>
@@ -5313,7 +5374,7 @@
       <c r="E200" s="11"/>
     </row>
     <row r="201" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B201" s="76"/>
+      <c r="B201" s="75"/>
       <c r="C201" s="16" t="s">
         <v>440</v>
       </c>
@@ -5323,7 +5384,7 @@
       <c r="E201" s="11"/>
     </row>
     <row r="202" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B202" s="76"/>
+      <c r="B202" s="75"/>
       <c r="C202" s="16" t="s">
         <v>599</v>
       </c>
@@ -5333,7 +5394,7 @@
       <c r="E202" s="11"/>
     </row>
     <row r="203" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B203" s="76"/>
+      <c r="B203" s="75"/>
       <c r="C203" s="16" t="s">
         <v>441</v>
       </c>
@@ -5343,7 +5404,7 @@
       <c r="E203" s="11"/>
     </row>
     <row r="204" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B204" s="76"/>
+      <c r="B204" s="75"/>
       <c r="C204" s="16" t="s">
         <v>443</v>
       </c>
@@ -5353,7 +5414,7 @@
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B205" s="76"/>
+      <c r="B205" s="75"/>
       <c r="C205" s="16" t="s">
         <v>444</v>
       </c>
@@ -5363,7 +5424,7 @@
       <c r="E205" s="11"/>
     </row>
     <row r="206" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B206" s="76"/>
+      <c r="B206" s="75"/>
       <c r="C206" s="16" t="s">
         <v>446</v>
       </c>
@@ -5373,7 +5434,7 @@
       <c r="E206" s="11"/>
     </row>
     <row r="207" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B207" s="76"/>
+      <c r="B207" s="75"/>
       <c r="C207" s="16" t="s">
         <v>448</v>
       </c>
@@ -5383,7 +5444,7 @@
       <c r="E207" s="11"/>
     </row>
     <row r="208" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B208" s="76"/>
+      <c r="B208" s="75"/>
       <c r="C208" s="16" t="s">
         <v>449</v>
       </c>
@@ -5393,7 +5454,7 @@
       <c r="E208" s="11"/>
     </row>
     <row r="209" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B209" s="76"/>
+      <c r="B209" s="75"/>
       <c r="C209" s="16" t="s">
         <v>450</v>
       </c>
@@ -5403,7 +5464,7 @@
       <c r="E209" s="11"/>
     </row>
     <row r="210" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B210" s="76"/>
+      <c r="B210" s="75"/>
       <c r="C210" s="16" t="s">
         <v>601</v>
       </c>
@@ -5413,7 +5474,7 @@
       <c r="E210" s="11"/>
     </row>
     <row r="211" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B211" s="76"/>
+      <c r="B211" s="75"/>
       <c r="C211" s="16" t="s">
         <v>451</v>
       </c>
@@ -5423,7 +5484,7 @@
       <c r="E211" s="11"/>
     </row>
     <row r="212" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B212" s="76"/>
+      <c r="B212" s="75"/>
       <c r="C212" s="16" t="s">
         <v>452</v>
       </c>
@@ -5433,7 +5494,7 @@
       <c r="E212" s="11"/>
     </row>
     <row r="213" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B213" s="76"/>
+      <c r="B213" s="75"/>
       <c r="C213" s="16" t="s">
         <v>453</v>
       </c>
@@ -5443,7 +5504,7 @@
       <c r="E213" s="11"/>
     </row>
     <row r="214" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B214" s="76"/>
+      <c r="B214" s="75"/>
       <c r="C214" s="16" t="s">
         <v>456</v>
       </c>
@@ -5453,7 +5514,7 @@
       <c r="E214" s="11"/>
     </row>
     <row r="215" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B215" s="76"/>
+      <c r="B215" s="75"/>
       <c r="C215" s="16" t="s">
         <v>457</v>
       </c>
@@ -5463,7 +5524,7 @@
       <c r="E215" s="11"/>
     </row>
     <row r="216" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B216" s="76"/>
+      <c r="B216" s="75"/>
       <c r="C216" s="16" t="s">
         <v>459</v>
       </c>
@@ -5473,7 +5534,7 @@
       <c r="E216" s="11"/>
     </row>
     <row r="217" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B217" s="76"/>
+      <c r="B217" s="75"/>
       <c r="C217" s="16" t="s">
         <v>460</v>
       </c>
@@ -5483,7 +5544,7 @@
       <c r="E217" s="11"/>
     </row>
     <row r="218" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B218" s="76"/>
+      <c r="B218" s="75"/>
       <c r="C218" s="16" t="s">
         <v>462</v>
       </c>
@@ -5493,7 +5554,7 @@
       <c r="E218" s="11"/>
     </row>
     <row r="219" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B219" s="76"/>
+      <c r="B219" s="75"/>
       <c r="C219" s="16" t="s">
         <v>464</v>
       </c>
@@ -5503,7 +5564,7 @@
       <c r="E219" s="11"/>
     </row>
     <row r="220" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B220" s="76"/>
+      <c r="B220" s="75"/>
       <c r="C220" s="16" t="s">
         <v>466</v>
       </c>
@@ -5513,7 +5574,7 @@
       <c r="E220" s="11"/>
     </row>
     <row r="221" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B221" s="76"/>
+      <c r="B221" s="75"/>
       <c r="C221" s="16" t="s">
         <v>468</v>
       </c>
@@ -5523,7 +5584,7 @@
       <c r="E221" s="11"/>
     </row>
     <row r="222" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B222" s="76"/>
+      <c r="B222" s="75"/>
       <c r="C222" s="33" t="s">
         <v>623</v>
       </c>
@@ -5533,7 +5594,7 @@
       <c r="E222" s="11"/>
     </row>
     <row r="223" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B223" s="76"/>
+      <c r="B223" s="75"/>
       <c r="C223" s="33" t="s">
         <v>625</v>
       </c>
@@ -5543,7 +5604,7 @@
       <c r="E223" s="11"/>
     </row>
     <row r="224" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B224" s="76"/>
+      <c r="B224" s="75"/>
       <c r="C224" s="33" t="s">
         <v>609</v>
       </c>
@@ -5553,7 +5614,7 @@
       <c r="E224" s="11"/>
     </row>
     <row r="225" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B225" s="76"/>
+      <c r="B225" s="75"/>
       <c r="C225" s="33" t="s">
         <v>611</v>
       </c>
@@ -5563,7 +5624,7 @@
       <c r="E225" s="11"/>
     </row>
     <row r="226" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B226" s="76"/>
+      <c r="B226" s="75"/>
       <c r="C226" s="36" t="s">
         <v>475</v>
       </c>
@@ -5573,7 +5634,7 @@
       <c r="E226" s="11"/>
     </row>
     <row r="227" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B227" s="76"/>
+      <c r="B227" s="75"/>
       <c r="C227" s="36" t="s">
         <v>477</v>
       </c>
@@ -5583,7 +5644,7 @@
       <c r="E227" s="11"/>
     </row>
     <row r="228" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B228" s="76"/>
+      <c r="B228" s="75"/>
       <c r="C228" s="36" t="s">
         <v>479</v>
       </c>
@@ -5593,7 +5654,7 @@
       <c r="E228" s="11"/>
     </row>
     <row r="229" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B229" s="76"/>
+      <c r="B229" s="75"/>
       <c r="C229" s="36" t="s">
         <v>481</v>
       </c>
@@ -5603,7 +5664,7 @@
       <c r="E229" s="11"/>
     </row>
     <row r="230" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B230" s="76"/>
+      <c r="B230" s="75"/>
       <c r="C230" s="36" t="s">
         <v>483</v>
       </c>
@@ -5613,7 +5674,7 @@
       <c r="E230" s="11"/>
     </row>
     <row r="231" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B231" s="76"/>
+      <c r="B231" s="75"/>
       <c r="C231" s="36" t="s">
         <v>485</v>
       </c>
@@ -5623,7 +5684,7 @@
       <c r="E231" s="11"/>
     </row>
     <row r="232" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B232" s="76"/>
+      <c r="B232" s="75"/>
       <c r="C232" s="36" t="s">
         <v>487</v>
       </c>
@@ -5633,7 +5694,7 @@
       <c r="E232" s="11"/>
     </row>
     <row r="233" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B233" s="76"/>
+      <c r="B233" s="75"/>
       <c r="C233" s="36" t="s">
         <v>490</v>
       </c>
@@ -5643,7 +5704,7 @@
       <c r="E233" s="11"/>
     </row>
     <row r="234" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B234" s="76"/>
+      <c r="B234" s="75"/>
       <c r="C234" s="36" t="s">
         <v>491</v>
       </c>
@@ -5653,7 +5714,7 @@
       <c r="E234" s="11"/>
     </row>
     <row r="235" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B235" s="76"/>
+      <c r="B235" s="75"/>
       <c r="C235" s="11" t="s">
         <v>493</v>
       </c>
@@ -5663,7 +5724,7 @@
       <c r="E235" s="11"/>
     </row>
     <row r="236" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B236" s="76"/>
+      <c r="B236" s="75"/>
       <c r="C236" s="36" t="s">
         <v>495</v>
       </c>
@@ -5673,7 +5734,7 @@
       <c r="E236" s="11"/>
     </row>
     <row r="237" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B237" s="76"/>
+      <c r="B237" s="75"/>
       <c r="C237" s="16" t="s">
         <v>470</v>
       </c>
@@ -5683,7 +5744,7 @@
       <c r="E237" s="11"/>
     </row>
     <row r="238" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B238" s="76"/>
+      <c r="B238" s="75"/>
       <c r="C238" s="16" t="s">
         <v>469</v>
       </c>
@@ -5693,7 +5754,7 @@
       <c r="E238" s="11"/>
     </row>
     <row r="239" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B239" s="76"/>
+      <c r="B239" s="75"/>
       <c r="C239" s="16" t="s">
         <v>471</v>
       </c>
@@ -5703,7 +5764,7 @@
       <c r="E239" s="11"/>
     </row>
     <row r="240" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B240" s="76"/>
+      <c r="B240" s="75"/>
       <c r="C240" s="16" t="s">
         <v>472</v>
       </c>
@@ -5713,7 +5774,7 @@
       <c r="E240" s="11"/>
     </row>
     <row r="241" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B241" s="76"/>
+      <c r="B241" s="75"/>
       <c r="C241" s="16" t="s">
         <v>473</v>
       </c>
@@ -5723,7 +5784,7 @@
       <c r="E241" s="11"/>
     </row>
     <row r="242" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B242" s="76"/>
+      <c r="B242" s="75"/>
       <c r="C242" s="16" t="s">
         <v>474</v>
       </c>
@@ -5733,7 +5794,7 @@
       <c r="E242" s="11"/>
     </row>
     <row r="243" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B243" s="76"/>
+      <c r="B243" s="75"/>
       <c r="C243" s="36" t="s">
         <v>497</v>
       </c>
@@ -5743,7 +5804,7 @@
       <c r="E243" s="11"/>
     </row>
     <row r="244" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B244" s="76"/>
+      <c r="B244" s="75"/>
       <c r="C244" s="36" t="s">
         <v>499</v>
       </c>
@@ -5753,7 +5814,7 @@
       <c r="E244" s="11"/>
     </row>
     <row r="245" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B245" s="76"/>
+      <c r="B245" s="75"/>
       <c r="C245" s="11" t="s">
         <v>501</v>
       </c>
@@ -5763,7 +5824,7 @@
       <c r="E245" s="11"/>
     </row>
     <row r="246" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B246" s="76"/>
+      <c r="B246" s="75"/>
       <c r="C246" s="33" t="s">
         <v>503</v>
       </c>
@@ -5773,7 +5834,7 @@
       <c r="E246" s="11"/>
     </row>
     <row r="247" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B247" s="76"/>
+      <c r="B247" s="75"/>
       <c r="C247" s="33" t="s">
         <v>509</v>
       </c>
@@ -5783,7 +5844,7 @@
       <c r="E247" s="11"/>
     </row>
     <row r="248" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B248" s="76"/>
+      <c r="B248" s="75"/>
       <c r="C248" s="33" t="s">
         <v>508</v>
       </c>
@@ -5793,7 +5854,7 @@
       <c r="E248" s="11"/>
     </row>
     <row r="249" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B249" s="76"/>
+      <c r="B249" s="75"/>
       <c r="C249" s="16" t="s">
         <v>504</v>
       </c>
@@ -5803,7 +5864,7 @@
       <c r="E249" s="11"/>
     </row>
     <row r="250" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B250" s="76"/>
+      <c r="B250" s="75"/>
       <c r="C250" s="16" t="s">
         <v>506</v>
       </c>
@@ -5813,7 +5874,7 @@
       <c r="E250" s="11"/>
     </row>
     <row r="251" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B251" s="76"/>
+      <c r="B251" s="75"/>
       <c r="C251" s="33" t="s">
         <v>510</v>
       </c>
@@ -5823,7 +5884,7 @@
       <c r="E251" s="11"/>
     </row>
     <row r="252" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B252" s="76"/>
+      <c r="B252" s="75"/>
       <c r="C252" s="33" t="s">
         <v>511</v>
       </c>
@@ -5833,7 +5894,7 @@
       <c r="E252" s="11"/>
     </row>
     <row r="253" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B253" s="76"/>
+      <c r="B253" s="75"/>
       <c r="C253" s="33" t="s">
         <v>512</v>
       </c>
@@ -5843,7 +5904,7 @@
       <c r="E253" s="11"/>
     </row>
     <row r="254" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B254" s="76"/>
+      <c r="B254" s="75"/>
       <c r="C254" s="33" t="s">
         <v>513</v>
       </c>
@@ -5853,7 +5914,7 @@
       <c r="E254" s="11"/>
     </row>
     <row r="255" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B255" s="76"/>
+      <c r="B255" s="75"/>
       <c r="C255" s="33" t="s">
         <v>514</v>
       </c>
@@ -5863,7 +5924,7 @@
       <c r="E255" s="11"/>
     </row>
     <row r="256" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B256" s="76"/>
+      <c r="B256" s="75"/>
       <c r="C256" s="33" t="s">
         <v>515</v>
       </c>
@@ -5873,7 +5934,7 @@
       <c r="E256" s="11"/>
     </row>
     <row r="257" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B257" s="76"/>
+      <c r="B257" s="75"/>
       <c r="C257" s="33" t="s">
         <v>516</v>
       </c>
@@ -5883,7 +5944,7 @@
       <c r="E257" s="11"/>
     </row>
     <row r="258" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B258" s="76"/>
+      <c r="B258" s="75"/>
       <c r="C258" s="33" t="s">
         <v>517</v>
       </c>
@@ -5893,7 +5954,7 @@
       <c r="E258" s="11"/>
     </row>
     <row r="259" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B259" s="76"/>
+      <c r="B259" s="75"/>
       <c r="C259" s="33" t="s">
         <v>518</v>
       </c>
@@ -5903,7 +5964,7 @@
       <c r="E259" s="11"/>
     </row>
     <row r="260" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B260" s="76"/>
+      <c r="B260" s="75"/>
       <c r="C260" s="33" t="s">
         <v>520</v>
       </c>
@@ -5913,7 +5974,7 @@
       <c r="E260" s="11"/>
     </row>
     <row r="261" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B261" s="76"/>
+      <c r="B261" s="75"/>
       <c r="C261" s="33" t="s">
         <v>522</v>
       </c>
@@ -5923,7 +5984,7 @@
       <c r="E261" s="11"/>
     </row>
     <row r="262" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B262" s="76"/>
+      <c r="B262" s="75"/>
       <c r="C262" s="33" t="s">
         <v>524</v>
       </c>
@@ -5933,7 +5994,7 @@
       <c r="E262" s="11"/>
     </row>
     <row r="263" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B263" s="76"/>
+      <c r="B263" s="75"/>
       <c r="C263" s="33" t="s">
         <v>526</v>
       </c>
@@ -5943,7 +6004,7 @@
       <c r="E263" s="11"/>
     </row>
     <row r="264" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B264" s="76"/>
+      <c r="B264" s="75"/>
       <c r="C264" s="33" t="s">
         <v>527</v>
       </c>
@@ -5953,7 +6014,7 @@
       <c r="E264" s="11"/>
     </row>
     <row r="265" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B265" s="76"/>
+      <c r="B265" s="75"/>
       <c r="C265" s="33" t="s">
         <v>533</v>
       </c>
@@ -5963,7 +6024,7 @@
       <c r="E265" s="11"/>
     </row>
     <row r="266" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B266" s="76"/>
+      <c r="B266" s="75"/>
       <c r="C266" s="16" t="s">
         <v>529</v>
       </c>
@@ -5973,7 +6034,7 @@
       <c r="E266" s="11"/>
     </row>
     <row r="267" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B267" s="76"/>
+      <c r="B267" s="75"/>
       <c r="C267" s="16" t="s">
         <v>531</v>
       </c>
@@ -5983,7 +6044,7 @@
       <c r="E267" s="11"/>
     </row>
     <row r="268" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B268" s="76"/>
+      <c r="B268" s="75"/>
       <c r="C268" s="16" t="s">
         <v>534</v>
       </c>
@@ -5993,7 +6054,7 @@
       <c r="E268" s="11"/>
     </row>
     <row r="269" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B269" s="76"/>
+      <c r="B269" s="75"/>
       <c r="C269" s="16" t="s">
         <v>536</v>
       </c>
@@ -6003,7 +6064,7 @@
       <c r="E269" s="11"/>
     </row>
     <row r="270" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B270" s="76"/>
+      <c r="B270" s="75"/>
       <c r="C270" s="33" t="s">
         <v>538</v>
       </c>
@@ -6013,7 +6074,7 @@
       <c r="E270" s="11"/>
     </row>
     <row r="271" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B271" s="76"/>
+      <c r="B271" s="75"/>
       <c r="C271" s="33" t="s">
         <v>613</v>
       </c>
@@ -6023,7 +6084,7 @@
       <c r="E271" s="11"/>
     </row>
     <row r="272" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B272" s="76"/>
+      <c r="B272" s="75"/>
       <c r="C272" s="33" t="s">
         <v>603</v>
       </c>
@@ -6033,7 +6094,7 @@
       <c r="E272" s="11"/>
     </row>
     <row r="273" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B273" s="76"/>
+      <c r="B273" s="75"/>
       <c r="C273" s="33" t="s">
         <v>539</v>
       </c>
@@ -6043,7 +6104,7 @@
       <c r="E273" s="11"/>
     </row>
     <row r="274" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B274" s="76"/>
+      <c r="B274" s="75"/>
       <c r="C274" s="33" t="s">
         <v>617</v>
       </c>
@@ -6053,7 +6114,7 @@
       <c r="E274" s="11"/>
     </row>
     <row r="275" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B275" s="76"/>
+      <c r="B275" s="75"/>
       <c r="C275" s="33" t="s">
         <v>621</v>
       </c>
@@ -6063,7 +6124,7 @@
       <c r="E275" s="11"/>
     </row>
     <row r="276" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B276" s="76"/>
+      <c r="B276" s="75"/>
       <c r="C276" s="33" t="s">
         <v>619</v>
       </c>
@@ -6073,7 +6134,7 @@
       <c r="E276" s="11"/>
     </row>
     <row r="277" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B277" s="76"/>
+      <c r="B277" s="75"/>
       <c r="C277" s="33" t="s">
         <v>615</v>
       </c>
@@ -6083,7 +6144,7 @@
       <c r="E277" s="11"/>
     </row>
     <row r="278" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B278" s="76"/>
+      <c r="B278" s="75"/>
       <c r="C278" s="33" t="s">
         <v>540</v>
       </c>
@@ -6093,7 +6154,7 @@
       <c r="E278" s="11"/>
     </row>
     <row r="279" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B279" s="76"/>
+      <c r="B279" s="75"/>
       <c r="C279" s="33" t="s">
         <v>541</v>
       </c>
@@ -6103,7 +6164,7 @@
       <c r="E279" s="11"/>
     </row>
     <row r="280" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B280" s="76"/>
+      <c r="B280" s="75"/>
       <c r="C280" s="33" t="s">
         <v>542</v>
       </c>
@@ -6113,7 +6174,7 @@
       <c r="E280" s="11"/>
     </row>
     <row r="281" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B281" s="76"/>
+      <c r="B281" s="75"/>
       <c r="C281" s="33" t="s">
         <v>544</v>
       </c>
@@ -6123,7 +6184,7 @@
       <c r="E281" s="11"/>
     </row>
     <row r="282" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B282" s="76"/>
+      <c r="B282" s="75"/>
       <c r="C282" s="33" t="s">
         <v>543</v>
       </c>
@@ -6133,7 +6194,7 @@
       <c r="E282" s="11"/>
     </row>
     <row r="283" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B283" s="76"/>
+      <c r="B283" s="75"/>
       <c r="C283" s="33" t="s">
         <v>545</v>
       </c>
@@ -6143,7 +6204,7 @@
       <c r="E283" s="11"/>
     </row>
     <row r="284" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B284" s="76"/>
+      <c r="B284" s="75"/>
       <c r="C284" s="33" t="s">
         <v>627</v>
       </c>
@@ -6153,7 +6214,7 @@
       <c r="E284" s="11"/>
     </row>
     <row r="285" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B285" s="76"/>
+      <c r="B285" s="75"/>
       <c r="C285" s="33" t="s">
         <v>546</v>
       </c>
@@ -6163,7 +6224,7 @@
       <c r="E285" s="11"/>
     </row>
     <row r="286" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B286" s="76"/>
+      <c r="B286" s="75"/>
       <c r="C286" s="33" t="s">
         <v>547</v>
       </c>
@@ -6173,7 +6234,7 @@
       <c r="E286" s="11"/>
     </row>
     <row r="287" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B287" s="76"/>
+      <c r="B287" s="75"/>
       <c r="C287" s="33" t="s">
         <v>548</v>
       </c>
@@ -6183,7 +6244,7 @@
       <c r="E287" s="11"/>
     </row>
     <row r="288" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B288" s="76"/>
+      <c r="B288" s="75"/>
       <c r="C288" s="33" t="s">
         <v>549</v>
       </c>
@@ -6193,7 +6254,7 @@
       <c r="E288" s="11"/>
     </row>
     <row r="289" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B289" s="76"/>
+      <c r="B289" s="75"/>
       <c r="C289" s="33" t="s">
         <v>550</v>
       </c>
@@ -6203,7 +6264,7 @@
       <c r="E289" s="11"/>
     </row>
     <row r="290" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B290" s="76"/>
+      <c r="B290" s="75"/>
       <c r="C290" s="33" t="s">
         <v>551</v>
       </c>
@@ -6213,7 +6274,7 @@
       <c r="E290" s="11"/>
     </row>
     <row r="291" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B291" s="76"/>
+      <c r="B291" s="75"/>
       <c r="C291" s="33" t="s">
         <v>552</v>
       </c>
@@ -6223,7 +6284,7 @@
       <c r="E291" s="11"/>
     </row>
     <row r="292" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B292" s="76"/>
+      <c r="B292" s="75"/>
       <c r="C292" s="33" t="s">
         <v>553</v>
       </c>
@@ -6233,7 +6294,7 @@
       <c r="E292" s="11"/>
     </row>
     <row r="293" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B293" s="76"/>
+      <c r="B293" s="75"/>
       <c r="C293" s="33" t="s">
         <v>554</v>
       </c>
@@ -6243,7 +6304,7 @@
       <c r="E293" s="11"/>
     </row>
     <row r="294" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B294" s="76"/>
+      <c r="B294" s="75"/>
       <c r="C294" s="33" t="s">
         <v>555</v>
       </c>
@@ -6253,7 +6314,7 @@
       <c r="E294" s="11"/>
     </row>
     <row r="295" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B295" s="76"/>
+      <c r="B295" s="75"/>
       <c r="C295" s="33" t="s">
         <v>556</v>
       </c>
@@ -6263,7 +6324,7 @@
       <c r="E295" s="11"/>
     </row>
     <row r="296" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B296" s="76"/>
+      <c r="B296" s="75"/>
       <c r="C296" s="33" t="s">
         <v>607</v>
       </c>
@@ -6273,7 +6334,7 @@
       <c r="E296" s="11"/>
     </row>
     <row r="297" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B297" s="76"/>
+      <c r="B297" s="75"/>
       <c r="C297" s="33" t="s">
         <v>557</v>
       </c>
@@ -6283,7 +6344,7 @@
       <c r="E297" s="11"/>
     </row>
     <row r="298" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B298" s="76"/>
+      <c r="B298" s="75"/>
       <c r="C298" s="33" t="s">
         <v>560</v>
       </c>
@@ -6293,7 +6354,7 @@
       <c r="E298" s="11"/>
     </row>
     <row r="299" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B299" s="76"/>
+      <c r="B299" s="75"/>
       <c r="C299" s="33" t="s">
         <v>558</v>
       </c>
@@ -6303,7 +6364,7 @@
       <c r="E299" s="11"/>
     </row>
     <row r="300" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B300" s="76"/>
+      <c r="B300" s="75"/>
       <c r="C300" s="33" t="s">
         <v>562</v>
       </c>
@@ -6313,7 +6374,7 @@
       <c r="E300" s="11"/>
     </row>
     <row r="301" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B301" s="76"/>
+      <c r="B301" s="75"/>
       <c r="C301" s="40" t="s">
         <v>559</v>
       </c>
@@ -6323,7 +6384,7 @@
       <c r="E301" s="11"/>
     </row>
     <row r="302" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B302" s="76"/>
+      <c r="B302" s="75"/>
       <c r="C302" s="11" t="s">
         <v>605</v>
       </c>
@@ -6333,7 +6394,7 @@
       <c r="E302" s="11"/>
     </row>
     <row r="303" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B303" s="76"/>
+      <c r="B303" s="75"/>
       <c r="C303" s="60" t="s">
         <v>122</v>
       </c>
@@ -6343,7 +6404,7 @@
       <c r="E303" s="11"/>
     </row>
     <row r="304" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B304" s="76"/>
+      <c r="B304" s="75"/>
       <c r="C304" s="16" t="s">
         <v>123</v>
       </c>
@@ -6353,7 +6414,7 @@
       <c r="E304" s="11"/>
     </row>
     <row r="305" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B305" s="76"/>
+      <c r="B305" s="75"/>
       <c r="C305" s="16" t="s">
         <v>124</v>
       </c>
@@ -6363,7 +6424,7 @@
       <c r="E305" s="11"/>
     </row>
     <row r="306" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B306" s="76"/>
+      <c r="B306" s="75"/>
       <c r="C306" s="16" t="s">
         <v>125</v>
       </c>
@@ -6373,7 +6434,7 @@
       <c r="E306" s="11"/>
     </row>
     <row r="307" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B307" s="76"/>
+      <c r="B307" s="75"/>
       <c r="C307" s="16" t="s">
         <v>126</v>
       </c>
@@ -6383,7 +6444,7 @@
       <c r="E307" s="11"/>
     </row>
     <row r="308" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B308" s="76"/>
+      <c r="B308" s="75"/>
       <c r="C308" s="16" t="s">
         <v>128</v>
       </c>
@@ -6393,7 +6454,7 @@
       <c r="E308" s="11"/>
     </row>
     <row r="309" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B309" s="76"/>
+      <c r="B309" s="75"/>
       <c r="C309" s="11" t="s">
         <v>127</v>
       </c>
@@ -6403,7 +6464,7 @@
       <c r="E309" s="11"/>
     </row>
     <row r="310" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="76"/>
+      <c r="B310" s="75"/>
       <c r="C310" s="17" t="s">
         <v>129</v>
       </c>
@@ -6413,7 +6474,7 @@
       <c r="E310" s="37"/>
     </row>
     <row r="311" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B311" s="88" t="s">
+      <c r="B311" s="74" t="s">
         <v>349</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -6425,7 +6486,7 @@
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B312" s="76"/>
+      <c r="B312" s="75"/>
       <c r="C312" s="5" t="s">
         <v>10</v>
       </c>
@@ -6435,7 +6496,7 @@
       <c r="E312" s="6"/>
     </row>
     <row r="313" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B313" s="76"/>
+      <c r="B313" s="75"/>
       <c r="C313" s="5" t="s">
         <v>1</v>
       </c>
@@ -6445,7 +6506,7 @@
       <c r="E313" s="6"/>
     </row>
     <row r="314" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B314" s="76"/>
+      <c r="B314" s="75"/>
       <c r="C314" s="5" t="s">
         <v>13</v>
       </c>
@@ -6455,7 +6516,7 @@
       <c r="E314" s="6"/>
     </row>
     <row r="315" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="79"/>
+      <c r="B315" s="76"/>
       <c r="C315" s="9" t="s">
         <v>12</v>
       </c>
@@ -6465,13 +6526,8 @@
       <c r="E315" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="E155:E187"/>
-    <mergeCell ref="B155:B187"/>
-    <mergeCell ref="B311:B315"/>
-    <mergeCell ref="B197:B310"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="B188:B191"/>
     <mergeCell ref="B100:B154"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="B88:B90"/>
@@ -6481,20 +6537,28 @@
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="E27:E41"/>
     <mergeCell ref="E51:E75"/>
+    <mergeCell ref="E155:E187"/>
+    <mergeCell ref="B155:B187"/>
+    <mergeCell ref="B311:B315"/>
+    <mergeCell ref="B197:B310"/>
+    <mergeCell ref="B192:B196"/>
+    <mergeCell ref="B188:B191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="6" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE96991-C7A7-4533-B3E3-C158909E38A8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6514,7 +6578,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>348</v>
       </c>
@@ -6525,7 +6589,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>348</v>
       </c>
@@ -6536,7 +6600,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>348</v>
       </c>
@@ -6547,7 +6611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>348</v>
       </c>
@@ -6558,7 +6622,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>348</v>
       </c>
@@ -6569,7 +6633,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>348</v>
       </c>
@@ -6580,7 +6644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>348</v>
       </c>
@@ -6591,7 +6655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>348</v>
       </c>
@@ -6602,7 +6666,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>348</v>
       </c>
@@ -6613,7 +6677,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>348</v>
       </c>
@@ -6624,7 +6688,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>348</v>
       </c>
@@ -6635,7 +6699,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>348</v>
       </c>
@@ -6646,7 +6710,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>348</v>
       </c>
@@ -6657,7 +6721,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>348</v>
       </c>
@@ -6668,7 +6732,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>348</v>
       </c>
@@ -6679,7 +6743,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
         <v>348</v>
       </c>
@@ -6690,7 +6754,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
         <v>348</v>
       </c>
@@ -6701,7 +6765,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>348</v>
       </c>
@@ -6712,7 +6776,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>348</v>
       </c>
@@ -6745,7 +6809,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>348</v>
       </c>
@@ -6756,7 +6820,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>348</v>
       </c>
@@ -6767,7 +6831,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>348</v>
       </c>
@@ -6778,7 +6842,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>348</v>
       </c>
@@ -6789,7 +6853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>348</v>
       </c>
@@ -6800,7 +6864,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>348</v>
       </c>
@@ -6811,7 +6875,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>348</v>
       </c>
@@ -6822,7 +6886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>348</v>
       </c>
@@ -6833,7 +6897,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>348</v>
       </c>
@@ -6844,7 +6908,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>348</v>
       </c>
@@ -6855,7 +6919,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>348</v>
       </c>
@@ -6866,7 +6930,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>348</v>
       </c>
@@ -6877,7 +6941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>348</v>
       </c>
@@ -6888,7 +6952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>348</v>
       </c>
@@ -6899,7 +6963,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>348</v>
       </c>
@@ -6910,7 +6974,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>348</v>
       </c>
@@ -6921,7 +6985,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>348</v>
       </c>
@@ -6932,7 +6996,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>348</v>
       </c>
@@ -6943,7 +7007,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>348</v>
       </c>
@@ -6954,7 +7018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>348</v>
       </c>
@@ -6965,7 +7029,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
         <v>348</v>
       </c>
@@ -6976,7 +7040,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>348</v>
       </c>
@@ -6987,7 +7051,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>347</v>
       </c>
@@ -6998,7 +7062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>347</v>
       </c>
@@ -7009,7 +7073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>347</v>
       </c>
@@ -7020,7 +7084,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>347</v>
       </c>
@@ -7031,7 +7095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62" t="s">
         <v>347</v>
       </c>
@@ -7042,7 +7106,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>347</v>
       </c>
@@ -7053,7 +7117,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>347</v>
       </c>
@@ -7064,7 +7128,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>347</v>
       </c>
@@ -7075,7 +7139,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>347</v>
       </c>
@@ -7086,7 +7150,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
         <v>347</v>
       </c>
@@ -7097,7 +7161,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>347</v>
       </c>
@@ -7108,7 +7172,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>347</v>
       </c>
@@ -7119,7 +7183,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>347</v>
       </c>
@@ -7130,7 +7194,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>347</v>
       </c>
@@ -7141,7 +7205,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>347</v>
       </c>
@@ -7152,7 +7216,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>347</v>
       </c>
@@ -7163,7 +7227,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>347</v>
       </c>
@@ -7174,7 +7238,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>347</v>
       </c>
@@ -7185,7 +7249,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>347</v>
       </c>
@@ -7196,7 +7260,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>347</v>
       </c>
@@ -7207,7 +7271,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>347</v>
       </c>
@@ -7218,7 +7282,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>347</v>
       </c>
@@ -7229,7 +7293,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>347</v>
       </c>
@@ -7240,7 +7304,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>347</v>
       </c>
@@ -7251,7 +7315,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>347</v>
       </c>
@@ -7262,7 +7326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>347</v>
       </c>
@@ -7273,7 +7337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>347</v>
       </c>
@@ -7284,7 +7348,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>347</v>
       </c>
@@ -7295,7 +7359,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>347</v>
       </c>
@@ -7306,7 +7370,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>347</v>
       </c>
@@ -7317,7 +7381,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>347</v>
       </c>
@@ -7328,7 +7392,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>347</v>
       </c>
@@ -7339,7 +7403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>132</v>
       </c>
@@ -7350,7 +7414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
         <v>132</v>
       </c>
@@ -7361,7 +7425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>132</v>
       </c>
@@ -7372,7 +7436,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>132</v>
       </c>
@@ -7383,7 +7447,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>132</v>
       </c>
@@ -7394,7 +7458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>132</v>
       </c>
@@ -7405,7 +7469,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
         <v>132</v>
       </c>
@@ -7416,7 +7480,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>132</v>
       </c>
@@ -7427,7 +7491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
         <v>132</v>
       </c>
@@ -7438,7 +7502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>132</v>
       </c>
@@ -7449,7 +7513,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
         <v>424</v>
       </c>
@@ -7460,7 +7524,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>424</v>
       </c>
@@ -7471,7 +7535,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>424</v>
       </c>
@@ -7482,7 +7546,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>566</v>
       </c>
@@ -7493,7 +7557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>566</v>
       </c>
@@ -7504,7 +7568,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>566</v>
       </c>
@@ -7515,7 +7579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>566</v>
       </c>
@@ -7526,7 +7590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>566</v>
       </c>
@@ -7537,7 +7601,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>566</v>
       </c>
@@ -7548,7 +7612,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>566</v>
       </c>
@@ -7559,7 +7623,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>566</v>
       </c>
@@ -7570,7 +7634,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>566</v>
       </c>
@@ -7581,7 +7645,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>566</v>
       </c>
@@ -7592,7 +7656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>566</v>
       </c>
@@ -7603,7 +7667,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>566</v>
       </c>
@@ -7614,7 +7678,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>566</v>
       </c>
@@ -7625,7 +7689,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>566</v>
       </c>
@@ -7636,7 +7700,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>566</v>
       </c>
@@ -7647,7 +7711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>566</v>
       </c>
@@ -7658,7 +7722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>566</v>
       </c>
@@ -7669,7 +7733,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>566</v>
       </c>
@@ -7680,7 +7744,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>566</v>
       </c>
@@ -7691,7 +7755,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>566</v>
       </c>
@@ -7702,7 +7766,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>566</v>
       </c>
@@ -7713,7 +7777,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>566</v>
       </c>
@@ -7724,7 +7788,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>566</v>
       </c>
@@ -7735,7 +7799,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>566</v>
       </c>
@@ -7746,7 +7810,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>566</v>
       </c>
@@ -7757,7 +7821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>566</v>
       </c>
@@ -7768,7 +7832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>566</v>
       </c>
@@ -7779,7 +7843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>566</v>
       </c>
@@ -7790,7 +7854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>566</v>
       </c>
@@ -7801,7 +7865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>566</v>
       </c>
@@ -7812,7 +7876,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>566</v>
       </c>
@@ -7823,7 +7887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>566</v>
       </c>
@@ -7834,7 +7898,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>566</v>
       </c>
@@ -7845,7 +7909,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>566</v>
       </c>
@@ -7856,7 +7920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>566</v>
       </c>
@@ -7867,7 +7931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>566</v>
       </c>
@@ -7878,7 +7942,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>566</v>
       </c>
@@ -7889,7 +7953,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>566</v>
       </c>
@@ -7900,7 +7964,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>566</v>
       </c>
@@ -7911,7 +7975,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>566</v>
       </c>
@@ -7922,7 +7986,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>566</v>
       </c>
@@ -7933,7 +7997,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>566</v>
       </c>
@@ -7944,7 +8008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>566</v>
       </c>
@@ -7955,7 +8019,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>566</v>
       </c>
@@ -7966,7 +8030,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>566</v>
       </c>
@@ -7977,7 +8041,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>566</v>
       </c>
@@ -7988,7 +8052,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>566</v>
       </c>
@@ -7999,7 +8063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>566</v>
       </c>
@@ -8010,7 +8074,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>566</v>
       </c>
@@ -8021,7 +8085,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>566</v>
       </c>
@@ -8032,7 +8096,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>566</v>
       </c>
@@ -8043,7 +8107,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>566</v>
       </c>
@@ -8054,7 +8118,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>566</v>
       </c>
@@ -8065,7 +8129,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>566</v>
       </c>
@@ -8076,7 +8140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>566</v>
       </c>
@@ -8087,7 +8151,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
         <v>566</v>
       </c>
@@ -8098,7 +8162,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>566</v>
       </c>
@@ -8109,7 +8173,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>566</v>
       </c>
@@ -8120,7 +8184,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>566</v>
       </c>
@@ -8131,7 +8195,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>566</v>
       </c>
@@ -8142,7 +8206,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>566</v>
       </c>
@@ -8153,7 +8217,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>566</v>
       </c>
@@ -8164,7 +8228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>566</v>
       </c>
@@ -8175,7 +8239,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>566</v>
       </c>
@@ -8186,7 +8250,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>340</v>
       </c>
@@ -8197,7 +8261,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>340</v>
       </c>
@@ -8208,7 +8272,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>340</v>
       </c>
@@ -8219,7 +8283,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>340</v>
       </c>
@@ -8230,7 +8294,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>340</v>
       </c>
@@ -8241,7 +8305,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>340</v>
       </c>
@@ -8252,7 +8316,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>340</v>
       </c>
@@ -8263,7 +8327,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>340</v>
       </c>
@@ -8274,7 +8338,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>340</v>
       </c>
@@ -8285,7 +8349,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>340</v>
       </c>
@@ -8296,7 +8360,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>340</v>
       </c>
@@ -8307,7 +8371,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>340</v>
       </c>
@@ -8318,7 +8382,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>340</v>
       </c>
@@ -8329,7 +8393,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>340</v>
       </c>
@@ -8340,7 +8404,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>340</v>
       </c>
@@ -8351,7 +8415,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>340</v>
       </c>
@@ -8362,7 +8426,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>340</v>
       </c>
@@ -8373,7 +8437,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>340</v>
       </c>
@@ -8384,7 +8448,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>340</v>
       </c>
@@ -8395,7 +8459,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>340</v>
       </c>
@@ -8406,7 +8470,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>340</v>
       </c>
@@ -8417,7 +8481,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>340</v>
       </c>
@@ -8428,7 +8492,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>340</v>
       </c>
@@ -8439,7 +8503,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>340</v>
       </c>
@@ -8450,7 +8514,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>340</v>
       </c>
@@ -8461,7 +8525,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>340</v>
       </c>
@@ -8472,7 +8536,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>340</v>
       </c>
@@ -8483,7 +8547,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="34" t="s">
         <v>340</v>
       </c>
@@ -8494,7 +8558,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>340</v>
       </c>
@@ -8505,7 +8569,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>340</v>
       </c>
@@ -8516,7 +8580,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>340</v>
       </c>
@@ -8527,7 +8591,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>340</v>
       </c>
@@ -8538,7 +8602,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>340</v>
       </c>
@@ -8549,7 +8613,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>636</v>
       </c>
@@ -8560,7 +8624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>636</v>
       </c>
@@ -8571,7 +8635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>636</v>
       </c>
@@ -8582,7 +8646,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>636</v>
       </c>
@@ -8593,7 +8657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="30" t="s">
         <v>567</v>
       </c>
@@ -8604,7 +8668,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="62" t="s">
         <v>567</v>
       </c>
@@ -8615,7 +8679,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>567</v>
       </c>
@@ -8626,7 +8690,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>567</v>
       </c>
@@ -8637,7 +8701,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>567</v>
       </c>
@@ -8648,7 +8712,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="59" t="s">
         <v>122</v>
       </c>
@@ -8659,7 +8723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16" t="s">
         <v>122</v>
       </c>
@@ -8670,7 +8734,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
         <v>122</v>
       </c>
@@ -8681,7 +8745,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16" t="s">
         <v>122</v>
       </c>
@@ -8692,7 +8756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="16" t="s">
         <v>122</v>
       </c>
@@ -8703,7 +8767,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16" t="s">
         <v>122</v>
       </c>
@@ -8714,7 +8778,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16" t="s">
         <v>122</v>
       </c>
@@ -8725,7 +8789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
         <v>122</v>
       </c>
@@ -8736,7 +8800,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
         <v>122</v>
       </c>
@@ -8747,7 +8811,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
         <v>122</v>
       </c>
@@ -8758,7 +8822,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
         <v>122</v>
       </c>
@@ -8769,7 +8833,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
         <v>122</v>
       </c>
@@ -8780,7 +8844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16" t="s">
         <v>122</v>
       </c>
@@ -8791,7 +8855,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16" t="s">
         <v>122</v>
       </c>
@@ -8802,7 +8866,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="16" t="s">
         <v>122</v>
       </c>
@@ -8813,7 +8877,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="16" t="s">
         <v>122</v>
       </c>
@@ -8824,7 +8888,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
         <v>122</v>
       </c>
@@ -8835,7 +8899,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
         <v>122</v>
       </c>
@@ -8846,7 +8910,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
         <v>122</v>
       </c>
@@ -8857,7 +8921,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="16" t="s">
         <v>122</v>
       </c>
@@ -8868,7 +8932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="16" t="s">
         <v>122</v>
       </c>
@@ -8879,7 +8943,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="16" t="s">
         <v>122</v>
       </c>
@@ -8890,7 +8954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="16" t="s">
         <v>122</v>
       </c>
@@ -8901,7 +8965,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="16" t="s">
         <v>122</v>
       </c>
@@ -8912,7 +8976,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="16" t="s">
         <v>122</v>
       </c>
@@ -8923,7 +8987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="33" t="s">
         <v>122</v>
       </c>
@@ -8934,7 +8998,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33" t="s">
         <v>122</v>
       </c>
@@ -8945,7 +9009,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="33" t="s">
         <v>122</v>
       </c>
@@ -8956,7 +9020,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33" t="s">
         <v>122</v>
       </c>
@@ -8967,7 +9031,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="36" t="s">
         <v>122</v>
       </c>
@@ -8978,7 +9042,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="36" t="s">
         <v>122</v>
       </c>
@@ -8989,7 +9053,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>122</v>
       </c>
@@ -9000,7 +9064,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>122</v>
       </c>
@@ -9011,7 +9075,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>122</v>
       </c>
@@ -9022,7 +9086,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>122</v>
       </c>
@@ -9033,7 +9097,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="36" t="s">
         <v>122</v>
       </c>
@@ -9044,7 +9108,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="36" t="s">
         <v>122</v>
       </c>
@@ -9055,7 +9119,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="36" t="s">
         <v>122</v>
       </c>
@@ -9066,7 +9130,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
         <v>122</v>
       </c>
@@ -9077,7 +9141,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>122</v>
       </c>
@@ -9088,7 +9152,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="16" t="s">
         <v>122</v>
       </c>
@@ -9099,7 +9163,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="16" t="s">
         <v>122</v>
       </c>
@@ -9110,7 +9174,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="16" t="s">
         <v>122</v>
       </c>
@@ -9121,7 +9185,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="16" t="s">
         <v>122</v>
       </c>
@@ -9132,7 +9196,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="16" t="s">
         <v>122</v>
       </c>
@@ -9143,7 +9207,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="16" t="s">
         <v>122</v>
       </c>
@@ -9154,7 +9218,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="36" t="s">
         <v>122</v>
       </c>
@@ -9165,7 +9229,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>122</v>
       </c>
@@ -9176,7 +9240,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="s">
         <v>122</v>
       </c>
@@ -9187,7 +9251,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="33" t="s">
         <v>122</v>
       </c>
@@ -9198,7 +9262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="33" t="s">
         <v>122</v>
       </c>
@@ -9209,7 +9273,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="33" t="s">
         <v>122</v>
       </c>
@@ -9220,7 +9284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="16" t="s">
         <v>122</v>
       </c>
@@ -9231,7 +9295,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="16" t="s">
         <v>122</v>
       </c>
@@ -9242,7 +9306,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33" t="s">
         <v>122</v>
       </c>
@@ -9253,7 +9317,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="33" t="s">
         <v>122</v>
       </c>
@@ -9264,7 +9328,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33" t="s">
         <v>122</v>
       </c>
@@ -9275,7 +9339,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="33" t="s">
         <v>122</v>
       </c>
@@ -9286,7 +9350,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33" t="s">
         <v>122</v>
       </c>
@@ -9297,7 +9361,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="33" t="s">
         <v>122</v>
       </c>
@@ -9308,7 +9372,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33" t="s">
         <v>122</v>
       </c>
@@ -9319,7 +9383,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="33" t="s">
         <v>122</v>
       </c>
@@ -9330,7 +9394,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33" t="s">
         <v>122</v>
       </c>
@@ -9341,7 +9405,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="33" t="s">
         <v>122</v>
       </c>
@@ -9352,7 +9416,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33" t="s">
         <v>122</v>
       </c>
@@ -9363,7 +9427,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="33" t="s">
         <v>122</v>
       </c>
@@ -9374,7 +9438,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33" t="s">
         <v>122</v>
       </c>
@@ -9385,7 +9449,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="33" t="s">
         <v>122</v>
       </c>
@@ -9396,7 +9460,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33" t="s">
         <v>122</v>
       </c>
@@ -9407,7 +9471,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="16" t="s">
         <v>122</v>
       </c>
@@ -9418,7 +9482,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="16" t="s">
         <v>122</v>
       </c>
@@ -9429,7 +9493,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="16" t="s">
         <v>122</v>
       </c>
@@ -9440,7 +9504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="16" t="s">
         <v>122</v>
       </c>
@@ -9451,7 +9515,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="33" t="s">
         <v>122</v>
       </c>
@@ -9462,7 +9526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33" t="s">
         <v>122</v>
       </c>
@@ -9473,7 +9537,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="33" t="s">
         <v>122</v>
       </c>
@@ -9484,7 +9548,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33" t="s">
         <v>122</v>
       </c>
@@ -9495,7 +9559,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="33" t="s">
         <v>122</v>
       </c>
@@ -9506,7 +9570,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33" t="s">
         <v>122</v>
       </c>
@@ -9517,7 +9581,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="33" t="s">
         <v>122</v>
       </c>
@@ -9528,7 +9592,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33" t="s">
         <v>122</v>
       </c>
@@ -9539,7 +9603,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="33" t="s">
         <v>122</v>
       </c>
@@ -9550,7 +9614,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33" t="s">
         <v>122</v>
       </c>
@@ -9561,7 +9625,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="33" t="s">
         <v>122</v>
       </c>
@@ -9572,7 +9636,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33" t="s">
         <v>122</v>
       </c>
@@ -9583,7 +9647,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="33" t="s">
         <v>122</v>
       </c>
@@ -9594,7 +9658,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33" t="s">
         <v>122</v>
       </c>
@@ -9605,7 +9669,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="33" t="s">
         <v>122</v>
       </c>
@@ -9616,7 +9680,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
         <v>122</v>
       </c>
@@ -9627,7 +9691,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="33" t="s">
         <v>122</v>
       </c>
@@ -9638,7 +9702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="33" t="s">
         <v>122</v>
       </c>
@@ -9649,7 +9713,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="33" t="s">
         <v>122</v>
       </c>
@@ -9660,7 +9724,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="33" t="s">
         <v>122</v>
       </c>
@@ -9671,7 +9735,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="33" t="s">
         <v>122</v>
       </c>
@@ -9682,7 +9746,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33" t="s">
         <v>122</v>
       </c>
@@ -9693,7 +9757,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="33" t="s">
         <v>122</v>
       </c>
@@ -9704,7 +9768,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33" t="s">
         <v>122</v>
       </c>
@@ -9715,7 +9779,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="33" t="s">
         <v>122</v>
       </c>
@@ -9726,7 +9790,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="33" t="s">
         <v>122</v>
       </c>
@@ -9737,7 +9801,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="33" t="s">
         <v>122</v>
       </c>
@@ -9748,7 +9812,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="33" t="s">
         <v>122</v>
       </c>
@@ -9759,7 +9823,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="33" t="s">
         <v>122</v>
       </c>
@@ -9770,7 +9834,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="33" t="s">
         <v>122</v>
       </c>
@@ -9781,7 +9845,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="33" t="s">
         <v>122</v>
       </c>
@@ -9792,7 +9856,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="40" t="s">
         <v>122</v>
       </c>
@@ -9803,7 +9867,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>122</v>
       </c>
@@ -9814,7 +9878,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="60" t="s">
         <v>122</v>
       </c>
@@ -9825,7 +9889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
         <v>122</v>
       </c>
@@ -9836,7 +9900,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="16" t="s">
         <v>122</v>
       </c>
@@ -9847,7 +9911,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="16" t="s">
         <v>122</v>
       </c>
@@ -9858,7 +9922,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16" t="s">
         <v>122</v>
       </c>
@@ -9869,7 +9933,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="16" t="s">
         <v>122</v>
       </c>
@@ -9880,7 +9944,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>122</v>
       </c>
@@ -9891,7 +9955,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
         <v>122</v>
       </c>
@@ -9902,7 +9966,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>349</v>
       </c>
@@ -9913,7 +9977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>349</v>
       </c>
@@ -9924,7 +9988,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>349</v>
       </c>
@@ -9935,7 +9999,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>349</v>
       </c>
@@ -9946,7 +10010,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>349</v>
       </c>
@@ -9957,7 +10021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>348</v>
       </c>
@@ -9968,7 +10032,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>347</v>
       </c>
@@ -9979,7 +10043,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>347</v>
       </c>
@@ -9990,7 +10054,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>347</v>
       </c>
@@ -10001,7 +10065,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>347</v>
       </c>
@@ -10012,7 +10076,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>347</v>
       </c>
@@ -10023,7 +10087,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>347</v>
       </c>
@@ -10034,7 +10098,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>347</v>
       </c>
@@ -10045,7 +10109,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>347</v>
       </c>
@@ -10056,7 +10120,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>424</v>
       </c>
@@ -10067,7 +10131,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>683</v>
       </c>
@@ -10078,7 +10142,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>683</v>
       </c>
@@ -10089,7 +10153,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>683</v>
       </c>
@@ -10100,7 +10164,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>683</v>
       </c>
@@ -10111,7 +10175,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>683</v>
       </c>
@@ -10122,7 +10186,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>683</v>
       </c>
@@ -10133,7 +10197,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>683</v>
       </c>
@@ -10144,7 +10208,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>340</v>
       </c>
@@ -10155,7 +10219,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>340</v>
       </c>
@@ -10166,7 +10230,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>340</v>
       </c>
@@ -10177,7 +10241,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>340</v>
       </c>
@@ -10188,7 +10252,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>340</v>
       </c>
@@ -10199,7 +10263,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>340</v>
       </c>
@@ -10210,7 +10274,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>340</v>
       </c>
@@ -10221,7 +10285,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>340</v>
       </c>
@@ -10232,7 +10296,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>340</v>
       </c>
@@ -10243,7 +10307,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>340</v>
       </c>
@@ -10254,7 +10318,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>340</v>
       </c>
@@ -10265,7 +10329,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>340</v>
       </c>
@@ -10276,7 +10340,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>340</v>
       </c>
@@ -10287,7 +10351,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -10298,7 +10362,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>340</v>
       </c>
@@ -10309,7 +10373,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>340</v>
       </c>
@@ -10320,7 +10384,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>340</v>
       </c>
@@ -10331,7 +10395,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>347</v>
       </c>
@@ -10342,7 +10406,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>347</v>
       </c>
@@ -10353,7 +10417,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>347</v>
       </c>
@@ -10364,7 +10428,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>347</v>
       </c>
@@ -10375,7 +10439,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>347</v>
       </c>
@@ -10386,7 +10450,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>347</v>
       </c>
@@ -10397,7 +10461,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>347</v>
       </c>
@@ -10408,7 +10472,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>122</v>
       </c>
@@ -10419,7 +10483,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>122</v>
       </c>
@@ -10430,7 +10494,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>122</v>
       </c>
@@ -10441,7 +10505,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>122</v>
       </c>
@@ -10452,7 +10516,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>122</v>
       </c>
@@ -10463,7 +10527,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>122</v>
       </c>
@@ -10474,7 +10538,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>122</v>
       </c>
@@ -10485,7 +10549,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>122</v>
       </c>
@@ -10496,7 +10560,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>122</v>
       </c>
@@ -10507,7 +10571,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>122</v>
       </c>
@@ -10518,7 +10582,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>122</v>
       </c>
@@ -10529,7 +10593,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>683</v>
       </c>
@@ -10540,7 +10604,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>683</v>
       </c>
@@ -10551,7 +10615,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>683</v>
       </c>
@@ -10562,7 +10626,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>683</v>
       </c>
@@ -10573,7 +10637,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>683</v>
       </c>
@@ -10584,7 +10648,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>683</v>
       </c>
@@ -10595,7 +10659,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>683</v>
       </c>
@@ -10606,7 +10670,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>683</v>
       </c>
@@ -10617,7 +10681,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>683</v>
       </c>
@@ -10628,7 +10692,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>683</v>
       </c>
@@ -10639,7 +10703,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>683</v>
       </c>
@@ -10650,7 +10714,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>683</v>
       </c>
@@ -10661,7 +10725,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>683</v>
       </c>
@@ -10672,7 +10736,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>683</v>
       </c>
@@ -10683,7 +10747,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>683</v>
       </c>
@@ -10694,7 +10758,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>683</v>
       </c>
@@ -10705,7 +10769,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>683</v>
       </c>
@@ -10716,7 +10780,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>683</v>
       </c>
@@ -10727,7 +10791,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>683</v>
       </c>
@@ -10738,7 +10802,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>683</v>
       </c>
@@ -10749,7 +10813,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>683</v>
       </c>
@@ -10761,28 +10825,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C387" xr:uid="{6CE96991-C7A7-4533-B3E3-C158909E38A8}"/>
+  <autoFilter ref="A1:C387" xr:uid="{6CE96991-C7A7-4533-B3E3-C158909E38A8}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LP_STATUS_FEIN"/>
+        <filter val="LP_STATUS_GROB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004F7AABC398522B40A32DAEEC36E85685" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fcd56fbdc9ca50fa66f2b7c9cf7a93ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="246f02dd96380beb4f7cdcce14d77fd6">
     <xsd:element name="properties">
@@ -10831,10 +10887,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083AA8F9-0094-42DD-9088-30A041B6BBAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CD8B8F-7010-4154-9283-2E108768C2EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10855,16 +10933,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CD8B8F-7010-4154-9283-2E108768C2EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083AA8F9-0094-42DD-9088-30A041B6BBAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>